--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T21:34:05+00:00</t>
+    <t>2023-01-23T16:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Germline Exome Bioinformatic Analysis</t>
+  </si>
+  <si>
+    <t>TRBA</t>
+  </si>
+  <si>
+    <t>Transcriptome Bioinformatic Analysis</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,6 +535,18 @@
       </c>
       <c r="D5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Transcriptome Bioinformatic Analysis</t>
+  </si>
+  <si>
+    <t>TEBA</t>
+  </si>
+  <si>
+    <t>Tumoral Exome Bioinformatic Analysis</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,6 +553,18 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -290,10 +290,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Tumoral Exome Bioinformatic Analysis</t>
+  </si>
+  <si>
+    <t>TNEBA</t>
+  </si>
+  <si>
+    <t>Tumor-Normal Exomes Bioinformatic Analysis</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,6 +571,18 @@
       </c>
       <c r="D7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-bioinfo-analysis-code.xlsx
+++ b/ig/CodeSystem-bioinfo-analysis-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
